--- a/data/3_professional/lectures.xlsx
+++ b/data/3_professional/lectures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\biobib\data\3_professional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F2EDF4-75B8-4AE6-A919-F6E43828A63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83D83FA-0DBC-4188-87BE-DEA47E03E6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7680" xr2:uid="{D81149D6-9FD3-4EA2-A327-7175B83F51A9}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{D81149D6-9FD3-4EA2-A327-7175B83F51A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
   <si>
     <t>N.</t>
   </si>
@@ -484,6 +485,72 @@
   </si>
   <si>
     <t>Environmental Markets Lab</t>
+  </si>
+  <si>
+    <t>Society for Conservation Biology</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
+  </si>
+  <si>
+    <t>Conservation Impact Evaluation Seminar Series</t>
+  </si>
+  <si>
+    <t>Evidence to Action</t>
+  </si>
+  <si>
+    <t>Center for Effective Global Action</t>
+  </si>
+  <si>
+    <t>Department of Geography Seminar Series</t>
+  </si>
+  <si>
+    <t>Berkeley, CA</t>
+  </si>
+  <si>
+    <t>Who benefits from individual rights over indigenous lands? Evidence from the Mapuche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biodiversity and Voluntary Sustainability Standards Workshop</t>
+  </si>
+  <si>
+    <t>How do private protected areas contribute to tropical biodiversity conservation?</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>PUC seminar</t>
+  </si>
+  <si>
+    <t>PERC seminar</t>
+  </si>
+  <si>
+    <t>Chile workshop presentation</t>
+  </si>
+  <si>
+    <t>CRC2 summit</t>
+  </si>
+  <si>
+    <t>Markets for nature-based _x000B_climate solutions</t>
+  </si>
+  <si>
+    <t>World Bank Land Conference</t>
+  </si>
+  <si>
+    <t>NASA LCLUC presentation</t>
+  </si>
+  <si>
+    <t>Who gains from individual property rights? Evidence from the allotment of Mapuche reservations</t>
+  </si>
+  <si>
+    <t>Offsets + additionality workshop</t>
+  </si>
+  <si>
+    <t>TNC NWL presentation</t>
+  </si>
+  <si>
+    <t>Bren Flash Talk</t>
   </si>
 </sst>
 </file>
@@ -522,28 +589,14 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -556,42 +609,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{7B977956-B6ED-450A-803E-2ED05BF72387}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
-      <queryTableField id="1" name="N." tableColumnId="1"/>
-      <queryTableField id="2" name="Date" tableColumnId="2"/>
-      <queryTableField id="3" name="Location" tableColumnId="3"/>
-      <queryTableField id="4" name="Title" tableColumnId="4"/>
-      <queryTableField id="5" name="Meeting" tableColumnId="5"/>
-      <queryTableField id="6" name="Organization" tableColumnId="6"/>
-      <queryTableField id="7" name="review_period" tableColumnId="7"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7943CE6E-37E5-43C8-87ED-297B2CBDA769}" name="lectures" displayName="lectures" ref="A1:G52" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G52" xr:uid="{55FBD079-8FC6-4E76-932B-26183095DC5A}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{126D2998-28C5-4FC5-AAC5-4761F2F62199}" uniqueName="1" name="N." queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7EC4E632-80E2-42B7-A8A2-5C064F71FAF2}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{6817FFDA-4585-45E6-A950-7145C4EF4652}" uniqueName="3" name="Location" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4FCF26E5-ACD0-41BE-9BE4-7775DFDE46F9}" uniqueName="4" name="Title" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{CA65085B-B719-45AB-BD75-15C57A142AA1}" uniqueName="5" name="Meeting" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{B6170E4E-2199-4EE0-89B6-9F90D2415EB4}" uniqueName="6" name="Organization" queryTableFieldId="6" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{E0826A93-BDA0-45B8-9AA2-F03529C6314A}" uniqueName="7" name="review_period" queryTableFieldId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -629,7 +650,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -735,7 +756,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -877,7 +898,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -885,24 +906,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBF101-0D65-4BC1-9F97-B33E63CD113F}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -925,812 +946,812 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>42430</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>42430</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>42461</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>42461</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>42522</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>42705</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>42887</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>43040</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>37</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>43132</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>43132</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>43132</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>40</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>43132</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>46</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>43160</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>49</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>43191</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>52</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>43344</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>54</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>43556</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>58</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>43556</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>59</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>43556</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>63</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>43556</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>66</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>43617</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>69</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>43862</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>73</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>43952</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>77</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>44044</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>80</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>44044</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>83</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>44105</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>86</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>44166</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>29</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>44197</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>90</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>44256</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>93</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>44287</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>96</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>44317</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>99</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>44317</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>102</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>44348</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
         <v>103</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>44409</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
         <v>104</v>
       </c>
       <c r="G34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>44498</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" t="s">
         <v>110</v>
       </c>
       <c r="G35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>44508</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>112</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1743,76 +1764,76 @@
       <c r="D37" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" t="s">
         <v>114</v>
       </c>
       <c r="G37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>44588</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>117</v>
       </c>
       <c r="G38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>44595</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>115</v>
       </c>
       <c r="D39" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>116</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>44607</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>74</v>
       </c>
       <c r="D40" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>123</v>
       </c>
       <c r="F40" t="s">
@@ -1822,89 +1843,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>44642</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>122</v>
       </c>
       <c r="D41" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>120</v>
       </c>
       <c r="G41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>44665</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>129</v>
       </c>
       <c r="D42" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>130</v>
       </c>
       <c r="G42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>44679</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>132</v>
       </c>
       <c r="G43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>44819</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" t="s">
         <v>124</v>
       </c>
       <c r="F44" t="s">
@@ -1914,99 +1935,99 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>44841</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" t="s">
         <v>135</v>
       </c>
       <c r="G45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>44852</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>86</v>
       </c>
       <c r="G46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>44855</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" t="s">
         <v>137</v>
       </c>
       <c r="G47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>44862</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" t="s">
         <v>110</v>
       </c>
       <c r="G48">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2016,43 +2037,43 @@
       <c r="C49" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" t="s">
         <v>141</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" t="s">
         <v>86</v>
       </c>
       <c r="G49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>45037</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" t="s">
         <v>148</v>
       </c>
       <c r="G50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2062,25 +2083,176 @@
       <c r="C51" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" t="s">
         <v>145</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" t="s">
         <v>86</v>
       </c>
       <c r="G51">
         <v>4</v>
       </c>
     </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45197</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45218</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="1">
+        <v>45334</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1">
+        <v>45427</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1">
+        <v>45483</v>
+      </c>
+      <c r="D59" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="1">
+        <v>45665</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="1">
+        <v>45681</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
